--- a/biology/Microbiologie/Acetithermota/Acetithermota.xlsx
+++ b/biology/Microbiologie/Acetithermota/Acetithermota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les "Candidatus Acetithermota" sont un phylum candidatus  du règne des Bacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce phylum est proposé en 2013 par Christian Rinke sous le nom de Acetothermia pour contenir la bactérie "Candidatus Acetothermum" qui est une bactérie non cultivable[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phylum est proposé en 2013 par Christian Rinke sous le nom de Acetothermia pour contenir la bactérie "Candidatus Acetothermum" qui est une bactérie non cultivable.
 </t>
         </is>
       </c>
@@ -542,13 +556,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Proposé en 2013 sous le nom de "Candidatus Acetothermia", le nom de ce phylum est considéré comme n'ayant pas de statut nomenclatural d'où les guillemets autour de son nom et l'ajout du terme Candidatus. Son nom est considéré comme non correct et comportant un faute[2]. Une proposition de modification de son nom en "Candidatus Acetithermota" est alors effectuée et devient le nom préféré et non pas le nom correct[2].
-Étymologie
-L'étymologie du nom actuel de ce phylum est la suivante : selon la LPSN A.ce.ti.ther.mo’ta. N.L. neut. n. Acetithermum, un nom de genre Candidatus; L. neut. pl. n. suff. -ota, suffixe définissant un phylum; N.L. neut. pl. n. Acetithermota, le phylum Candidatus Acetithermum[3].
-Liste des classes
-Selon la base de nomenclature LPSN  (02/08/2023)[4], ce phylum ne contient pas de classe publiée de manière valide.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proposé en 2013 sous le nom de "Candidatus Acetothermia", le nom de ce phylum est considéré comme n'ayant pas de statut nomenclatural d'où les guillemets autour de son nom et l'ajout du terme Candidatus. Son nom est considéré comme non correct et comportant un faute. Une proposition de modification de son nom en "Candidatus Acetithermota" est alors effectuée et devient le nom préféré et non pas le nom correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acetithermota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acetithermota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom actuel de ce phylum est la suivante : selon la LPSN A.ce.ti.ther.mo’ta. N.L. neut. n. Acetithermum, un nom de genre Candidatus; L. neut. pl. n. suff. -ota, suffixe définissant un phylum; N.L. neut. pl. n. Acetithermota, le phylum Candidatus Acetithermum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acetithermota</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acetithermota</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de nomenclature LPSN  (02/08/2023), ce phylum ne contient pas de classe publiée de manière valide.
 </t>
         </is>
       </c>
